--- a/data/hotels_by_city/Houston/Houston_shard_100.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56907-d1177136-Reviews-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,849 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r552769786-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>1177136</t>
+  </si>
+  <si>
+    <t>552769786</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the way to Florida </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on 1/7/18 and the room was great.  It was a king bedded room with a accessible bathroom with grab bars and a tub shower combo with grab bars.  The room had a flat screen tv , microwave, mini refrigerator, and coffee maker.  There was also a wet bar by the door.  Check in was quick and easy.  We will stay here again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on 1/7/18 and the room was great.  It was a king bedded room with a accessible bathroom with grab bars and a tub shower combo with grab bars.  The room had a flat screen tv , microwave, mini refrigerator, and coffee maker.  There was also a wet bar by the door.  Check in was quick and easy.  We will stay here again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r544888111-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>544888111</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Room was Spacious</t>
+  </si>
+  <si>
+    <t>Even with no reservations we were in a room quickly and at a reasonable price. The room was clean and big. Outlets for our electronics were plentiful. Bed was huge and cozy. Motel is right off the interstate, close to gas stations and cafes. The free breakfast was very good before leaving.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Even with no reservations we were in a room quickly and at a reasonable price. The room was clean and big. Outlets for our electronics were plentiful. Bed was huge and cozy. Motel is right off the interstate, close to gas stations and cafes. The free breakfast was very good before leaving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r528939234-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>528939234</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Shared the room with ants</t>
+  </si>
+  <si>
+    <t>The stay was pleasant enough until we discovered a bathroom floor full of ants the morning of departure. That made for a quick get ready to leave and departure.  At checkout we made mention of the fact - and suggested that that particular room be added to the exterminators list at his next visit.  The front desk clerk asked "Why didn't you report the ants immediately and we would have come and sprayed?!"   {Really?  Why would we want you/your staff in the bathroom at 5:30 am when we're trying to shower and dress?  It's easier to keep smashing the ants with our flip flops at that hour.}  There was no apology for the ants.  Must be a common occurrence here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>The stay was pleasant enough until we discovered a bathroom floor full of ants the morning of departure. That made for a quick get ready to leave and departure.  At checkout we made mention of the fact - and suggested that that particular room be added to the exterminators list at his next visit.  The front desk clerk asked "Why didn't you report the ants immediately and we would have come and sprayed?!"   {Really?  Why would we want you/your staff in the bathroom at 5:30 am when we're trying to shower and dress?  It's easier to keep smashing the ants with our flip flops at that hour.}  There was no apology for the ants.  Must be a common occurrence here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r498567069-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>498567069</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place to stay for sure. </t>
+  </si>
+  <si>
+    <t>We stayed Friday Saturday and Sunday. The beds were real soft and comfy. Right off of i10 so if you're passing through, it is easy to get back on the road. Staff were all friendly from the moment we arrived to the time we left. Room was always cleaned and straightened up while we were gone. We will stay here again when we come back next summer.  Make sure you visit crystal beach and ride the ferry. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed Friday Saturday and Sunday. The beds were real soft and comfy. Right off of i10 so if you're passing through, it is easy to get back on the road. Staff were all friendly from the moment we arrived to the time we left. Room was always cleaned and straightened up while we were gone. We will stay here again when we come back next summer.  Make sure you visit crystal beach and ride the ferry. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r468635151-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>468635151</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Love this hotel, and the price!</t>
+  </si>
+  <si>
+    <t>My criteria for a good hotel: well lit parking, friendly staff, reasonable price, updated appearance, clean, comfortable bed and pillows, strong water pressure in shower, and free breakfast. Comfort Inn &amp; Suites in Winnie, Texas has all this and more, for less than you'd pay at other similar quality hotels. The breakfast attendant is definitely worth a mention. She kept food stocked and cleaned each table as guests left the breakfast area. I would certainly stay here again, and highly recommend it to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>My criteria for a good hotel: well lit parking, friendly staff, reasonable price, updated appearance, clean, comfortable bed and pillows, strong water pressure in shower, and free breakfast. Comfort Inn &amp; Suites in Winnie, Texas has all this and more, for less than you'd pay at other similar quality hotels. The breakfast attendant is definitely worth a mention. She kept food stocked and cleaned each table as guests left the breakfast area. I would certainly stay here again, and highly recommend it to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r465264390-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>465264390</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Nice place.</t>
+  </si>
+  <si>
+    <t>Helpful staff. I kept messing up the key card with the magnet on my cellphone, but the desk clerk remained unruffled and friendly and helpful. No place to exercise, but I should have checked ahead of time if I really wanted to sweat indoors. I did take the stairs up and down a few times -- nice stairs -- and ended up walking outdoors on the property, making the rounds with no fear for my well-being. Perfect place for me and my husband. No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Helpful staff. I kept messing up the key card with the magnet on my cellphone, but the desk clerk remained unruffled and friendly and helpful. No place to exercise, but I should have checked ahead of time if I really wanted to sweat indoors. I did take the stairs up and down a few times -- nice stairs -- and ended up walking outdoors on the property, making the rounds with no fear for my well-being. Perfect place for me and my husband. No complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r396739264-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>396739264</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Just passing through</t>
+  </si>
+  <si>
+    <t>Great place to stay for a night. Clean and safe, right off the highway. Front desk was very helpful in fixing a problem I had with my Choice Privileges account. Plenty to choose from at breakfast, well stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay for a night. Clean and safe, right off the highway. Front desk was very helpful in fixing a problem I had with my Choice Privileges account. Plenty to choose from at breakfast, well stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r390157325-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>390157325</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Nice place for the night</t>
+  </si>
+  <si>
+    <t>We checked in at 3pm and sent to or rooms.  It was freshly made, the bed covers were great.  Good TV.  I might add that this is an old hotel, with fresh everything.  You really had to look to see that it was old, but yet very good place a stay.  The breakfast was good, with one exception.  They didn't have biscuits, only bread and a toaster and bagels.  It also was a pretty small dining area.  If the hotel had been full and most had eaten at the same time I don't think everyone would have fitted. I would go back but might check out one of the oters.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>We checked in at 3pm and sent to or rooms.  It was freshly made, the bed covers were great.  Good TV.  I might add that this is an old hotel, with fresh everything.  You really had to look to see that it was old, but yet very good place a stay.  The breakfast was good, with one exception.  They didn't have biscuits, only bread and a toaster and bagels.  It also was a pretty small dining area.  If the hotel had been full and most had eaten at the same time I don't think everyone would have fitted. I would go back but might check out one of the oters.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r384045832-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>384045832</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Lovely place 😍</t>
+  </si>
+  <si>
+    <t>Had a great experience at this inn. Clean, polished, and just what we needed after along day of driving. Front desk clerk was extremely kind and helpful. Beds were super comfortable and spotless. Outstanding overall experience. I recommend this inn to anyone and everyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Had a great experience at this inn. Clean, polished, and just what we needed after along day of driving. Front desk clerk was extremely kind and helpful. Beds were super comfortable and spotless. Outstanding overall experience. I recommend this inn to anyone and everyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r370961857-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>370961857</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and quiet</t>
+  </si>
+  <si>
+    <t>I stayed here for five nights on a birding trip and was really pleased with the quality of the accommodations.  The room was clean and spacious with efficient air conditioning and reliable wireless.  The breakfast was consistently good, including coffee that was actually drinkable.  I especially appreciate the staff's honoring my advance request for a quiet, out of the way room.  I really couldn't have asked for more in a place to stay in Winnie.  Now if they could only do something about the heat, humidity, and mosquitoes on the Gulf Coast!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for five nights on a birding trip and was really pleased with the quality of the accommodations.  The room was clean and spacious with efficient air conditioning and reliable wireless.  The breakfast was consistently good, including coffee that was actually drinkable.  I especially appreciate the staff's honoring my advance request for a quiet, out of the way room.  I really couldn't have asked for more in a place to stay in Winnie.  Now if they could only do something about the heat, humidity, and mosquitoes on the Gulf Coast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r367168720-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>367168720</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed five nights while on a birding vacation.  The hotel staff were unfailingly pleasant, and they are used to bird watchers so they were able to engage in friendly chatter about this topic.  Our room was spacious and comfortable.  The TV had HD reception and a very good selection of channels, using a cable network.  Our only complaint about housekeeping was that the coffeemaker was not cleaned out two of the days we were there.  Otherwise the room was neat and clean.  Breakfast was ample, with cereals, eggs, bacon, sausage, waffles, and the usual manufactured pastries.  The breakfast room was not large enough to accommodate all the patrons who wanted an early start and arrived at more or less the same time.  There was also no functional lobby, so friends staying at a different hotel could not visit with us.  WiFi was spotty and I question its security, since I began receiving spam one day that I used the WiFi.  Nevertheless, we liked this hotel and would stay there again.  You can walk to Al T's Cajun restaurant or to Denny's.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded April 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2016</t>
+  </si>
+  <si>
+    <t>We stayed five nights while on a birding vacation.  The hotel staff were unfailingly pleasant, and they are used to bird watchers so they were able to engage in friendly chatter about this topic.  Our room was spacious and comfortable.  The TV had HD reception and a very good selection of channels, using a cable network.  Our only complaint about housekeeping was that the coffeemaker was not cleaned out two of the days we were there.  Otherwise the room was neat and clean.  Breakfast was ample, with cereals, eggs, bacon, sausage, waffles, and the usual manufactured pastries.  The breakfast room was not large enough to accommodate all the patrons who wanted an early start and arrived at more or less the same time.  There was also no functional lobby, so friends staying at a different hotel could not visit with us.  WiFi was spotty and I question its security, since I began receiving spam one day that I used the WiFi.  Nevertheless, we liked this hotel and would stay there again.  You can walk to Al T's Cajun restaurant or to Denny's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r364107037-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>364107037</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel in good location</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights and it was a very convenient base for travelling down to High Island, Anahuac NWR and the Bolivar Peninsular. The room was spacious, clean and very comfortable. The room was at the back of the hotel overlooking some woodlands, which had quite a few birds and even had a Raccoon wandering though in the evening. The room was very quiet as well with good WiFi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights and it was a very convenient base for travelling down to High Island, Anahuac NWR and the Bolivar Peninsular. The room was spacious, clean and very comfortable. The room was at the back of the hotel overlooking some woodlands, which had quite a few birds and even had a Raccoon wandering though in the evening. The room was very quiet as well with good WiFi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r354293895-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>354293895</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Above average roadside hotel</t>
+  </si>
+  <si>
+    <t>This Comfort Inn has everything one needs for a one-night stopover.  Convenient to the highway, much cheaper than getting into the Houston suburbs, clean, comfortable beds, large rooms and quiet.  The breakfast was above average for this kind of chain with plenty of fruit selections.  The desk attendant at night was especially pleasant and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>This Comfort Inn has everything one needs for a one-night stopover.  Convenient to the highway, much cheaper than getting into the Houston suburbs, clean, comfortable beds, large rooms and quiet.  The breakfast was above average for this kind of chain with plenty of fruit selections.  The desk attendant at night was especially pleasant and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r353792433-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>353792433</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay on business on Thursday</t>
+  </si>
+  <si>
+    <t>The receptionist was very pleasant and got us checked in quickly.  Luggage trolleys helped with unloading.  Good TV reception and a decent selection of channels.  The king bed was comfortable, the place was very clean and in good condition.  Breakfast buffet was representative of motel breakfasts, but the eating area was clean and the server was very attentive to picking up after people who ate in.  Other breakfast restaurants are across the street or within a mile.  We liked it and will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>The receptionist was very pleasant and got us checked in quickly.  Luggage trolleys helped with unloading.  Good TV reception and a decent selection of channels.  The king bed was comfortable, the place was very clean and in good condition.  Breakfast buffet was representative of motel breakfasts, but the eating area was clean and the server was very attentive to picking up after people who ate in.  Other breakfast restaurants are across the street or within a mile.  We liked it and will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r334799804-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>334799804</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Better than usual</t>
+  </si>
+  <si>
+    <t>Much better standard than usual for Comfort Inn. Clean, spacious, and quiet. Very nice, hot breakfast. Sausages, bacon, scrambled eggs, tree kinds of cereal. Friendly and competent receptionist. Recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded December 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2015</t>
+  </si>
+  <si>
+    <t>Much better standard than usual for Comfort Inn. Clean, spacious, and quiet. Very nice, hot breakfast. Sausages, bacon, scrambled eggs, tree kinds of cereal. Friendly and competent receptionist. Recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r310228547-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>310228547</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Perfect night's sleep</t>
+  </si>
+  <si>
+    <t>stopped for the night on the way to San Antonio; arrived late and tired. Greeted very warmly by the lady behind the counter. Hotel seems to be fairly new. Had a really comfortable night's sleep. The only complaint is that the a/c system is set so that no matter what speed the fan is on it will go off once the temp is reached; I expect that on "auto" but I like the fan sound while sleeping. The front desk employee actually came to the room to see if there was something wrong with it and she told me that is how the a/c works.  Other than that, no problems. Comp breakfast was actually edible and pretty tasty.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>stopped for the night on the way to San Antonio; arrived late and tired. Greeted very warmly by the lady behind the counter. Hotel seems to be fairly new. Had a really comfortable night's sleep. The only complaint is that the a/c system is set so that no matter what speed the fan is on it will go off once the temp is reached; I expect that on "auto" but I like the fan sound while sleeping. The front desk employee actually came to the room to see if there was something wrong with it and she told me that is how the a/c works.  Other than that, no problems. Comp breakfast was actually edible and pretty tasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r307859350-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>307859350</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good accommodations but the walls and floors are wafer thin. </t>
+  </si>
+  <si>
+    <t>We enjoyed our stay. The suite was very comfortable. The two issues we had was the families above us apparently were tearing up their room because we heard every word said every time they stomped around the room or jumped up and down. We thought they were going to fall through the ceiling. The other issue dealt with breakfast. They don't have much for diabetics such as sugar free syrup. They don't stock it. They also are very limited with their fruit selection. Overall the stay was above average. We would recommend this motel to travelers. MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay. The suite was very comfortable. The two issues we had was the families above us apparently were tearing up their room because we heard every word said every time they stomped around the room or jumped up and down. We thought they were going to fall through the ceiling. The other issue dealt with breakfast. They don't have much for diabetics such as sugar free syrup. They don't stock it. They also are very limited with their fruit selection. Overall the stay was above average. We would recommend this motel to travelers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r297274321-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>297274321</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Delightful</t>
+  </si>
+  <si>
+    <t>Perfect stop going from Louisiana to Austin. Staff was delightful, beds comfortable, everything clean &amp; well stocked. Both the night clerk &amp; day clerk were friendly and nice.We arrived tired and left refreshed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Perfect stop going from Louisiana to Austin. Staff was delightful, beds comfortable, everything clean &amp; well stocked. Both the night clerk &amp; day clerk were friendly and nice.We arrived tired and left refreshed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r289685448-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>289685448</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Brand new!</t>
+  </si>
+  <si>
+    <t>Very beautiful and clean. The staff is so friendly and helpful. The breakfast is the usual which is good. I had laundry to do and the machines were in very good working order. We were offered happy hour with snacks and pizza. The lobby had cookies and fruit infused water which hit the spot. It was a ver enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Very beautiful and clean. The staff is so friendly and helpful. The breakfast is the usual which is good. I had laundry to do and the machines were in very good working order. We were offered happy hour with snacks and pizza. The lobby had cookies and fruit infused water which hit the spot. It was a ver enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r287881452-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>287881452</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice! Highly recommend </t>
+  </si>
+  <si>
+    <t>This comfort inn in very nice! Everything is modern. Beds were comfortable shower head was great. Breakfast was good. Room was clean. Pool was really nice! Pool had a mini waterfall you can stand under. No complaints here. Some parking for large vehicles with trailers on the  sides but you have to back into them. The price is great! It the cheapest I could find between Houston &amp; the Louisiana border. $75 per night for this nice of a hotel was great. Everything else nice on the I-10 between Houston &amp; LA were around $100 per night. I highly recommend this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2015</t>
+  </si>
+  <si>
+    <t>This comfort inn in very nice! Everything is modern. Beds were comfortable shower head was great. Breakfast was good. Room was clean. Pool was really nice! Pool had a mini waterfall you can stand under. No complaints here. Some parking for large vehicles with trailers on the  sides but you have to back into them. The price is great! It the cheapest I could find between Houston &amp; the Louisiana border. $75 per night for this nice of a hotel was great. Everything else nice on the I-10 between Houston &amp; LA were around $100 per night. I highly recommend this hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r281850396-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>281850396</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Very nice and clean!!</t>
+  </si>
+  <si>
+    <t>Very nice motel with a nice price!   Very clean and comfortable. Shower was nice with good water pressure which is very important to me! Staff was extremely nice!  Would definitely stay here again! Breakfast was actually really good. Hot and fresh.  Pool area was clean and well taking care of. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Very nice motel with a nice price!   Very clean and comfortable. Shower was nice with good water pressure which is very important to me! Staff was extremely nice!  Would definitely stay here again! Breakfast was actually really good. Hot and fresh.  Pool area was clean and well taking care of. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r274542862-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>274542862</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>A good overnight spot off I-10.</t>
+  </si>
+  <si>
+    <t>I stayed here twice, 2 weeks apart. There's nothing to see in Winnie except restaurants, gas, and motels. But it's E-Z off, EZ-on, and has nice rooms with friendly desk staff.A lot of birders stay here, to hit High Island to the south, or other swamp areas.  NOTE: With 60 inches of rain per year, expect drizzle or downpour just about any time. All of southeast Texas is like that.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here twice, 2 weeks apart. There's nothing to see in Winnie except restaurants, gas, and motels. But it's E-Z off, EZ-on, and has nice rooms with friendly desk staff.A lot of birders stay here, to hit High Island to the south, or other swamp areas.  NOTE: With 60 inches of rain per year, expect drizzle or downpour just about any time. All of southeast Texas is like that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r272957901-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>272957901</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Comfort inn winnie</t>
+  </si>
+  <si>
+    <t>Comfort Inn, Winnie, Texas is located in a perfect location for weary travelers.  It is about 15 miles West of Beaumont, Texas on I 10 at a very easy on easy off ramp which avoids Beaumont's congestion.  There is gas and restaraunts close by with a Jack in the Box next door. The rooms are large and comfortable and full complimentary breakfast is available from 6 till 9. If you request a room in the back you will be facing a Forrest without even a parking lot in the rear so it's very quiet. Very reasonable rates.  Free WiFi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Comfort Inn, Winnie, Texas is located in a perfect location for weary travelers.  It is about 15 miles West of Beaumont, Texas on I 10 at a very easy on easy off ramp which avoids Beaumont's congestion.  There is gas and restaraunts close by with a Jack in the Box next door. The rooms are large and comfortable and full complimentary breakfast is available from 6 till 9. If you request a room in the back you will be facing a Forrest without even a parking lot in the rear so it's very quiet. Very reasonable rates.  Free WiFi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r272432259-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>272432259</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Nice, friendly staff and very clean</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is the cleanest and has the friendliest staff of any that we have stayed in and we have stayed in quite a few. We were given a little treat at check in that added to the welcoming feel that was already setting in. In addition, the price is very competitive for the area. Definitely on our list for staying again when in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2015</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is the cleanest and has the friendliest staff of any that we have stayed in and we have stayed in quite a few. We were given a little treat at check in that added to the welcoming feel that was already setting in. In addition, the price is very competitive for the area. Definitely on our list for staying again when in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r270103856-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>270103856</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>TOS spring meeting</t>
+  </si>
+  <si>
+    <t>The beds are very comfy. Breakfast was ready at 6 just as promised. We were looking for birds so our days started very early. The desk clerk gave us a bag for our grab and go breakfast.   We visit Winnie during migration in the spring and fall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>The beds are very comfy. Breakfast was ready at 6 just as promised. We were looking for birds so our days started very early. The desk clerk gave us a bag for our grab and go breakfast.   We visit Winnie during migration in the spring and fall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r265934803-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>265934803</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This place is clean, comfy and felt right.  Our first floor room was very nice with all the usual amenities. Breakfast included in the room rate was nice too!  They got everything right including the super online price. I would stay here again anytime!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>This place is clean, comfy and felt right.  Our first floor room was very nice with all the usual amenities. Breakfast included in the room rate was nice too!  They got everything right including the super online price. I would stay here again anytime!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r259661436-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>259661436</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Nice stopover</t>
+  </si>
+  <si>
+    <t>Didn't want to stay too close to Houston so decided to stay here. Very nice, clean and comfortable.  Staff was very friendly and helpful. Good selection for breakfast.  Close to the highway but quiet. Lot wasn't huge but was adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Didn't want to stay too close to Houston so decided to stay here. Very nice, clean and comfortable.  Staff was very friendly and helpful. Good selection for breakfast.  Close to the highway but quiet. Lot wasn't huge but was adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r220726049-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>220726049</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Simply one of the Best!</t>
+  </si>
+  <si>
+    <t>What can I say? Great stay, great customer service and excellent bed! I was late checking in and out early the next morning however everyone that I came in contact with was super friendly and actually cared about each guest!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, Guest Relations Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded April 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2015</t>
+  </si>
+  <si>
+    <t>What can I say? Great stay, great customer service and excellent bed! I was late checking in and out early the next morning however everyone that I came in contact with was super friendly and actually cared about each guest!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r190294321-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>190294321</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Nice rooms, staff needs to be better with customer service</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel more then we did.  The check in process with three people behind the counter was not up to par.  The General manager was there and was less then welcoming when I questioned their pricing.  She told me she had no record of my family being at other Comfort Inns until I pulled out a reciept from Las Cruces and Surprise, AZ.  At the other three Comfort Inns that we stayed in the free breakfast had more options and I didn't have to fight staff to eat.   The room was very nice with clean fresh towels and sheets.  Very nicely decorated and the property is well maintained.  The desk clerk later in the first evening was living on her cell phone when I approached her for more towels and was there in the morning still at it.   No cookies at this inn, don't ask.  The manager needs to learn a little southern hospitality and tact in talking with customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I really wanted to like this hotel more then we did.  The check in process with three people behind the counter was not up to par.  The General manager was there and was less then welcoming when I questioned their pricing.  She told me she had no record of my family being at other Comfort Inns until I pulled out a reciept from Las Cruces and Surprise, AZ.  At the other three Comfort Inns that we stayed in the free breakfast had more options and I didn't have to fight staff to eat.   The room was very nice with clean fresh towels and sheets.  Very nicely decorated and the property is well maintained.  The desk clerk later in the first evening was living on her cell phone when I approached her for more towels and was there in the morning still at it.   No cookies at this inn, don't ask.  The manager needs to learn a little southern hospitality and tact in talking with customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r162573300-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>162573300</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>The Best in Winnie</t>
+  </si>
+  <si>
+    <t>this is the only place i stay when i'm in Winnie. rooms are clean, safe parking. staff and management are helpful and friendly. nice swimming pool for the kids, good hot breakfast. this is what i expect from choice hotels. this comfort inn sets the bar high for other comfort inns. centrally located in Winnie close to all resturants. easy access to I10. Al-T's is next door, Trade days is just a few minutes drive.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r130358829-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>130358829</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We found this motel to be just what we needed. It was comfortable and clean. The breakfast was very good and included hot foods in addition to the usual cereal and toast items. We would stay again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r124181780-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>124181780</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Okay, but not great</t>
+  </si>
+  <si>
+    <t>Attendant was not very attentive or informative. Was more interested in the computer. Asked for a suite so my partner could watch tv while I slept and found the TV in the bedroom part of the room. Room okay but not the cleanest ever.  Breakfast was okay and the attendant kept a close eye on all the items. Just a real below average hotel, not sure if I would stay here again.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r116871400-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>116871400</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Desk attendant was awesome, Manager not so much</t>
+  </si>
+  <si>
+    <t>Just spent a night in this Comfort Inn, Winnie. Cost was thirty five dollars for small pet ( free down the road, but no handicap rooms available) We discovered a major leak , and reported it to the front desk. It could have caused significant damage if left unreported.  Asked for a small reduction in our rate or lower the pet fee. Desk Attendant was very polite, but the Manager was gruff and rude. We will be making this same trip every quarter, but will not be staying with them..When I spend money, I want friendly and courteous. I did not feel out of line asking for some relief other than our senior citizen discountMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Just spent a night in this Comfort Inn, Winnie. Cost was thirty five dollars for small pet ( free down the road, but no handicap rooms available) We discovered a major leak , and reported it to the front desk. It could have caused significant damage if left unreported.  Asked for a small reduction in our rate or lower the pet fee. Desk Attendant was very polite, but the Manager was gruff and rude. We will be making this same trip every quarter, but will not be staying with them..When I spend money, I want friendly and courteous. I did not feel out of line asking for some relief other than our senior citizen discountMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1384,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1416,2196 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>220</v>
+      </c>
+      <c r="X21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>229</v>
+      </c>
+      <c r="X22" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J23" t="s">
+        <v>234</v>
+      </c>
+      <c r="K23" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s">
+        <v>236</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>237</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>238</v>
+      </c>
+      <c r="X23" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K24" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" t="s">
+        <v>245</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>246</v>
+      </c>
+      <c r="X24" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>254</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>255</v>
+      </c>
+      <c r="X25" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
+        <v>262</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>254</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>272</v>
+      </c>
+      <c r="X27" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" t="s">
+        <v>278</v>
+      </c>
+      <c r="L28" t="s">
+        <v>279</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>280</v>
+      </c>
+      <c r="O28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>281</v>
+      </c>
+      <c r="X28" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>285</v>
+      </c>
+      <c r="J29" t="s">
+        <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>287</v>
+      </c>
+      <c r="L29" t="s">
+        <v>288</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>289</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>290</v>
+      </c>
+      <c r="X29" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>294</v>
+      </c>
+      <c r="J30" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" t="s">
+        <v>296</v>
+      </c>
+      <c r="L30" t="s">
+        <v>297</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>298</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>301</v>
+      </c>
+      <c r="J31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K31" t="s">
+        <v>303</v>
+      </c>
+      <c r="L31" t="s">
+        <v>304</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>305</v>
+      </c>
+      <c r="O31" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>311</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>313</v>
+      </c>
+      <c r="J33" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>317</v>
+      </c>
+      <c r="O33" t="s">
+        <v>167</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_100.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r564745829-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>1177136</t>
+  </si>
+  <si>
+    <t>564745829</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Nice place, no discounts</t>
+  </si>
+  <si>
+    <t>While working in Dayton we chose this hotel because we wanted to eat at a local restaurant. The hotel was nice, clean and beds very comfortable. They however offered no discounts at all.  If you're a choice member book on choice rewards site and save a few bucks.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>While working in Dayton we chose this hotel because we wanted to eat at a local restaurant. The hotel was nice, clean and beds very comfortable. They however offered no discounts at all.  If you're a choice member book on choice rewards site and save a few bucks.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r562802406-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>562802406</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here on our way through Texas. The hotel was clean and attractive inside. Breakfast was the typical fare. Everything was as it should be. I had absolutely no complaints. Location is between big cities of Beaumont and Houston. Nice to stay in a smaller quiet town.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here on our way through Texas. The hotel was clean and attractive inside. Breakfast was the typical fare. Everything was as it should be. I had absolutely no complaints. Location is between big cities of Beaumont and Houston. Nice to stay in a smaller quiet town.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r552769786-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
-    <t>56907</t>
-  </si>
-  <si>
-    <t>1177136</t>
-  </si>
-  <si>
     <t>552769786</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded January 10, 2018</t>
   </si>
   <si>
@@ -243,6 +300,63 @@
     <t>The stay was pleasant enough until we discovered a bathroom floor full of ants the morning of departure. That made for a quick get ready to leave and departure.  At checkout we made mention of the fact - and suggested that that particular room be added to the exterminators list at his next visit.  The front desk clerk asked "Why didn't you report the ants immediately and we would have come and sprayed?!"   {Really?  Why would we want you/your staff in the bathroom at 5:30 am when we're trying to shower and dress?  It's easier to keep smashing the ants with our flip flops at that hour.}  There was no apology for the ants.  Must be a common occurrence here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r509501701-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>509501701</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Lived up to Reviews</t>
+  </si>
+  <si>
+    <t>This hotel had great reviews so my expectations were high and we were not disappointed when we arrived.  The entry area is beautiful and the desk attendant was friendly and efficient.  Our room was a King suite which was comfortable and clean.  There was even a rubber mat to go in the tub as a safety feature.  Breakfast was quite good and there was a a good variety.  There are many dining options nearby at this exit.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>This hotel had great reviews so my expectations were high and we were not disappointed when we arrived.  The entry area is beautiful and the desk attendant was friendly and efficient.  Our room was a King suite which was comfortable and clean.  There was even a rubber mat to go in the tub as a safety feature.  Breakfast was quite good and there was a a good variety.  There are many dining options nearby at this exit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r501455405-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>501455405</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Amazing and cozy</t>
+  </si>
+  <si>
+    <t>This was a quick stop on the interstate, but I am very impressed with how clean and affordable this place is. We will definitely be staying here again. The clerk was very helpful and professional. By far one of the best hotels I've stayed at while traveling.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>This was a quick stop on the interstate, but I am very impressed with how clean and affordable this place is. We will definitely be staying here again. The clerk was very helpful and professional. By far one of the best hotels I've stayed at while traveling.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r498567069-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -258,12 +372,6 @@
     <t>We stayed Friday Saturday and Sunday. The beds were real soft and comfy. Right off of i10 so if you're passing through, it is easy to get back on the road. Staff were all friendly from the moment we arrived to the time we left. Room was always cleaned and straightened up while we were gone. We will stay here again when we come back next summer.  Make sure you visit crystal beach and ride the ferry. MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 5, 2017</t>
   </si>
   <si>
@@ -324,6 +432,60 @@
     <t>Helpful staff. I kept messing up the key card with the magnet on my cellphone, but the desk clerk remained unruffled and friendly and helpful. No place to exercise, but I should have checked ahead of time if I really wanted to sweat indoors. I did take the stairs up and down a few times -- nice stairs -- and ended up walking outdoors on the property, making the rounds with no fear for my well-being. Perfect place for me and my husband. No complaints.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r432610841-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>432610841</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Batting a Thousand with Choice</t>
+  </si>
+  <si>
+    <t>All of our stays at Choice Hotels have been excellent and Winnie, TX can be included in the group. The service was excellent. The staff was friendly. I counted 6 handicap rooms and they were all on the first floor. The front desk attendant informed me that one of the rooms was fully wheel chair accessible. They do have transportation to and from the Airport but there is a fee for the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>All of our stays at Choice Hotels have been excellent and Winnie, TX can be included in the group. The service was excellent. The staff was friendly. I counted 6 handicap rooms and they were all on the first floor. The front desk attendant informed me that one of the rooms was fully wheel chair accessible. They do have transportation to and from the Airport but there is a fee for the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r406222695-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>406222695</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Emergency stop</t>
+  </si>
+  <si>
+    <t>While on our way to San Antonio our vehicle broke down and we were lucky to find this wonderful hotel. Lobby, dining area and room was well kept and the front desk was extremely helpful in our time of need. Would definitely stay again. Just not under the same circumstances!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>While on our way to San Antonio our vehicle broke down and we were lucky to find this wonderful hotel. Lobby, dining area and room was well kept and the front desk was extremely helpful in our time of need. Would definitely stay again. Just not under the same circumstances!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r396739264-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -399,15 +561,63 @@
     <t>Had a great experience at this inn. Clean, polished, and just what we needed after along day of driving. Front desk clerk was extremely kind and helpful. Beds were super comfortable and spotless. Outstanding overall experience. I recommend this inn to anyone and everyone. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r383287070-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>383287070</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Property </t>
+  </si>
+  <si>
+    <t>I stayed here overnight heading to Houston. The staff was great. I was immediately upgraded to a King Suite due to my Choice status. The room was great. Housekeeping did a excellent job. I'd recommend this property to any passing thru. The iminities were very upscale. I enjoyed my stay. Definitely a 5star experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here overnight heading to Houston. The staff was great. I was immediately upgraded to a King Suite due to my Choice status. The room was great. Housekeeping did a excellent job. I'd recommend this property to any passing thru. The iminities were very upscale. I enjoyed my stay. Definitely a 5star experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r371040565-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>371040565</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>A Fine Stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed overnight on the way home from a trip. We found the staff pleasant and efficient.The breakfast was very good and included bacon and sausage. The room was clean  and well lighted. Access from IH-10 was easy,MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed overnight on the way home from a trip. We found the staff pleasant and efficient.The breakfast was very good and included bacon and sausage. The room was clean  and well lighted. Access from IH-10 was easy,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r370961857-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
     <t>370961857</t>
   </si>
   <si>
-    <t>05/07/2016</t>
-  </si>
-  <si>
     <t>Clean, comfortable, and quiet</t>
   </si>
   <si>
@@ -417,15 +627,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 8, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 8, 2016</t>
-  </si>
-  <si>
     <t>I stayed here for five nights on a birding trip and was really pleased with the quality of the accommodations.  The room was clean and spacious with efficient air conditioning and reliable wireless.  The breakfast was consistently good, including coffee that was actually drinkable.  I especially appreciate the staff's honoring my advance request for a quiet, out of the way room.  I really couldn't have asked for more in a place to stay in Winnie.  Now if they could only do something about the heat, humidity, and mosquitoes on the Gulf Coast!More</t>
   </si>
   <si>
@@ -477,6 +678,57 @@
     <t>Stayed here for three nights and it was a very convenient base for travelling down to High Island, Anahuac NWR and the Bolivar Peninsular. The room was spacious, clean and very comfortable. The room was at the back of the hotel overlooking some woodlands, which had quite a few birds and even had a Raccoon wandering though in the evening. The room was very quiet as well with good WiFi.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r361713576-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>361713576</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay!!</t>
+  </si>
+  <si>
+    <t>Very nice hotel and staff! Easy access to Beaumont with only a 20 min drive. Stayed in a room with a double queen which was really nice. Great place to stay for Lamar graduations. Great breakfast to start the morning!! Easy on and off for I-10. Will definitely stay here again if the need arises MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel and staff! Easy access to Beaumont with only a 20 min drive. Stayed in a room with a double queen which was really nice. Great place to stay for Lamar graduations. Great breakfast to start the morning!! Easy on and off for I-10. Will definitely stay here again if the need arises More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r359701396-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>359701396</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The young woman behind the front desk started our wonderful stay. She was polite, very professional, and thorough. She even thanked us for being a Diamond Member, which most at choice hotels do not do. She was so good, we decided to bring her back dessert from the restaurant we visited nearby as we really appreciated her. I am only sorry I did not catch her name. The hotel was clean, and the room was spacious and comfortable. The wifi was adequate enough to finish up our work. The breakfast was also good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>The young woman behind the front desk started our wonderful stay. She was polite, very professional, and thorough. She even thanked us for being a Diamond Member, which most at choice hotels do not do. She was so good, we decided to bring her back dessert from the restaurant we visited nearby as we really appreciated her. I am only sorry I did not catch her name. The hotel was clean, and the room was spacious and comfortable. The wifi was adequate enough to finish up our work. The breakfast was also good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r354293895-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -492,9 +744,6 @@
     <t>This Comfort Inn has everything one needs for a one-night stopover.  Convenient to the highway, much cheaper than getting into the Houston suburbs, clean, comfortable beds, large rooms and quiet.  The breakfast was above average for this kind of chain with plenty of fruit selections.  The desk attendant at night was especially pleasant and friendly.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 11, 2016</t>
   </si>
   <si>
@@ -519,9 +768,6 @@
     <t>The receptionist was very pleasant and got us checked in quickly.  Luggage trolleys helped with unloading.  Good TV reception and a decent selection of channels.  The king bed was comfortable, the place was very clean and in good condition.  Breakfast buffet was representative of motel breakfasts, but the eating area was clean and the server was very attentive to picking up after people who ate in.  Other breakfast restaurants are across the street or within a mile.  We liked it and will be back.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 9, 2016</t>
   </si>
   <si>
@@ -558,6 +804,60 @@
     <t>Much better standard than usual for Comfort Inn. Clean, spacious, and quiet. Very nice, hot breakfast. Sausages, bacon, scrambled eggs, tree kinds of cereal. Friendly and competent receptionist. Recommended!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r326888952-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>326888952</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Great choice!</t>
+  </si>
+  <si>
+    <t>We stopped for a quick night while traveling to New Orleans. The hotel was newly renovated with a pretty staircase in the front lobby. The guy who checked us in was very nice and professional. Elevator could do with some updating but was functional. Our room was clean and very spacious with a comfy bed. Had a built-in counter/nook for microwave and fridge. Also had a desk and chair. TV was not so impressive. There were plenty of food options around. Excellent stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>We stopped for a quick night while traveling to New Orleans. The hotel was newly renovated with a pretty staircase in the front lobby. The guy who checked us in was very nice and professional. Elevator could do with some updating but was functional. Our room was clean and very spacious with a comfy bed. Had a built-in counter/nook for microwave and fridge. Also had a desk and chair. TV was not so impressive. There were plenty of food options around. Excellent stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r318415585-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>318415585</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>No Exercise Room</t>
+  </si>
+  <si>
+    <t>Palm trees to enter and a staircase in the lobby, don't see that every day at Comfort Inn!  Pool set up in front so noisy, but at least built so the sun is there all day, some Choice hotels laid out incorrectly, and you don't know until checkin. Cushioned lounge chairs with arms, very nice.  Only bad surprise was no room to run in place, if that's a deal breaker.  Also rotating TV in suite was setup in front of bed instead of sitting area, TV just too small for viewing distance.  More than enough room to change setup.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Carol  N, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Palm trees to enter and a staircase in the lobby, don't see that every day at Comfort Inn!  Pool set up in front so noisy, but at least built so the sun is there all day, some Choice hotels laid out incorrectly, and you don't know until checkin. Cushioned lounge chairs with arms, very nice.  Only bad surprise was no room to run in place, if that's a deal breaker.  Also rotating TV in suite was setup in front of bed instead of sitting area, TV just too small for viewing distance.  More than enough room to change setup.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r310228547-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -636,6 +936,57 @@
     <t>Perfect stop going from Louisiana to Austin. Staff was delightful, beds comfortable, everything clean &amp; well stocked. Both the night clerk &amp; day clerk were friendly and nice.We arrived tired and left refreshed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r290924145-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>290924145</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>A++</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night. I wish we could have stayed here longer due to the bed being so comfortable.  The room was very clean with little to no outside noise. The breakfast was fairly standard but they did offer up some freshly cooked bacon.  Good price for a great stay.  I look forward to staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night. I wish we could have stayed here longer due to the bed being so comfortable.  The room was very clean with little to no outside noise. The breakfast was fairly standard but they did offer up some freshly cooked bacon.  Good price for a great stay.  I look forward to staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r290558863-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>290558863</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Fabulous place!</t>
+  </si>
+  <si>
+    <t>We decided to stop here on our way to the beach. This place is perfect! It is so very clean, and the staff is super sweet. The beds were so comfortable, we even looked to find the brand so we can have one at home! Haven't slept that good in forever! Breakfast was typical of choice, and got us started on our day. We will definitely stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>We decided to stop here on our way to the beach. This place is perfect! It is so very clean, and the staff is super sweet. The beds were so comfortable, we even looked to find the brand so we can have one at home! Haven't slept that good in forever! Breakfast was typical of choice, and got us started on our day. We will definitely stay here again!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r289685448-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -651,9 +1002,6 @@
     <t>Very beautiful and clean. The staff is so friendly and helpful. The breakfast is the usual which is good. I had laundry to do and the machines were in very good working order. We were offered happy hour with snacks and pizza. The lobby had cookies and fruit infused water which hit the spot. It was a ver enjoyable stay.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded July 18, 2015</t>
   </si>
   <si>
@@ -714,6 +1062,54 @@
     <t>Very nice motel with a nice price!   Very clean and comfortable. Shower was nice with good water pressure which is very important to me! Staff was extremely nice!  Would definitely stay here again! Breakfast was actually really good. Hot and fresh.  Pool area was clean and well taking care of. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r281381082-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>281381082</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Quiet, clean hotel</t>
+  </si>
+  <si>
+    <t>A very friendly, helpful front desk staff.  Good breakfast. Pool area is kept clean.  Stayed for six nights and I must say the room was cleaned very well each day and smelled nice.  Big room with enough space to walk around.  Very close to the highway but I never heard any traffic at all.  A relaxing six nights.  There are a few restaurants around the Winnie area.  Beaumont, TX is under a 30 minute drive and Houston is around an hour. Wifi worked really well. A very nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>A very friendly, helpful front desk staff.  Good breakfast. Pool area is kept clean.  Stayed for six nights and I must say the room was cleaned very well each day and smelled nice.  Big room with enough space to walk around.  Very close to the highway but I never heard any traffic at all.  A relaxing six nights.  There are a few restaurants around the Winnie area.  Beaumont, TX is under a 30 minute drive and Houston is around an hour. Wifi worked really well. A very nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r280968006-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>280968006</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Good Overnight Stay</t>
+  </si>
+  <si>
+    <t>While traveling on I-10 East, I Goggled hotels to stay in overnight.  We originally planned to stay in Beaumont, TX overnight but the hotel prices were much more.  We opted for the Comfort Inn &amp; Suites in Winnie.  The hotel is conveniently located off of I-10 and is reasonably price.  The hotel staff was professional and friendly, the room was clean and comfortable, and a free breakfast was available that included waffles, sausage, bacon, scrambled eggs, yogurt, fruit, cereals, pastries, juice and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>While traveling on I-10 East, I Goggled hotels to stay in overnight.  We originally planned to stay in Beaumont, TX overnight but the hotel prices were much more.  We opted for the Comfort Inn &amp; Suites in Winnie.  The hotel is conveniently located off of I-10 and is reasonably price.  The hotel staff was professional and friendly, the room was clean and comfortable, and a free breakfast was available that included waffles, sausage, bacon, scrambled eggs, yogurt, fruit, cereals, pastries, juice and coffee.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r274542862-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -792,6 +1188,54 @@
     <t>This Comfort Inn is the cleanest and has the friendliest staff of any that we have stayed in and we have stayed in quite a few. We were given a little treat at check in that added to the welcoming feel that was already setting in. In addition, the price is very competitive for the area. Definitely on our list for staying again when in this area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r271171856-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>271171856</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Cleanest hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 nights. The hotel was very pretty, super clean, smelled good every day and the staff were very helpful. The breakfasts were fresh and never over crowded. Plenty of parking every night and quiet. If going to any nearby festival you should check this place out. About 45 minutes from all the fests on Bolivar Peninsula. Couple of great restaraunt in town too. Overall a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 nights. The hotel was very pretty, super clean, smelled good every day and the staff were very helpful. The breakfasts were fresh and never over crowded. Plenty of parking every night and quiet. If going to any nearby festival you should check this place out. About 45 minutes from all the fests on Bolivar Peninsula. Couple of great restaraunt in town too. Overall a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r270817213-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>270817213</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great property! </t>
+  </si>
+  <si>
+    <t>This was the first visit the wife and I have made to Winnie. Our original plan was to visit just for the annual crab fest held on Crystal Beach. But, we also found that the local trade days flea market was also held the same weekend! The flea market is located no more than 2 to 3/10th's of a mile down the street from the hotel which is awesome! The place looks great from the moment you walk in and the rooms look great as well. Our room was located right next to the elevator and vending machines but we never heard either of them which was great! The staff were friendly and knowledgeable about the area which helped us being newbies to this side of Houston and Galveston Island. Bed was very comfortable and loved the bathroom as well with all the granite. From all the choice properties I have stayed at over the last year this was by far the best.  Oh! Join choice privileges before checking in as well and get a cool bag with a water and some snacks at check in! ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2015</t>
+  </si>
+  <si>
+    <t>This was the first visit the wife and I have made to Winnie. Our original plan was to visit just for the annual crab fest held on Crystal Beach. But, we also found that the local trade days flea market was also held the same weekend! The flea market is located no more than 2 to 3/10th's of a mile down the street from the hotel which is awesome! The place looks great from the moment you walk in and the rooms look great as well. Our room was located right next to the elevator and vending machines but we never heard either of them which was great! The staff were friendly and knowledgeable about the area which helped us being newbies to this side of Houston and Galveston Island. Bed was very comfortable and loved the bathroom as well with all the granite. From all the choice properties I have stayed at over the last year this was by far the best.  Oh! Join choice privileges before checking in as well and get a cool bag with a water and some snacks at check in! ;)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r270103856-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -870,6 +1314,54 @@
     <t>Didn't want to stay too close to Houston so decided to stay here. Very nice, clean and comfortable.  Staff was very friendly and helpful. Good selection for breakfast.  Close to the highway but quiet. Lot wasn't huge but was adequate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r235082208-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>235082208</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>We usually go for £35 a night motels on our USA road trips as they tend to be more than adequate and great value for money. This place cost a little more (around £50 I think) and was a real step up in quality. We didn't want to leave and if it weren't for the long drive across Texas, we would have stayed in the very comfortable bed for another hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Winnie_TX939, General Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>We usually go for £35 a night motels on our USA road trips as they tend to be more than adequate and great value for money. This place cost a little more (around £50 I think) and was a real step up in quality. We didn't want to leave and if it weren't for the long drive across Texas, we would have stayed in the very comfortable bed for another hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r231384222-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>231384222</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>For a small town this was a nice hotel with clean rooms. Did not hear any traffic noise if any from our room. We were tired when we arrived so walked next door to Denny's then a mini market. Plenty for breakfast including eggs, sausage and bacon.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>For a small town this was a nice hotel with clean rooms. Did not hear any traffic noise if any from our room. We were tired when we arrived so walked next door to Denny's then a mini market. Plenty for breakfast including eggs, sausage and bacon.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r220726049-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1428,39 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r148610557-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>148610557</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel with great amenities</t>
+  </si>
+  <si>
+    <t>Customer service at this hotel is second to none. We stayed there for a project and I would have not stayed at another place. The rooms are clean inside and out. Parking is spacious and the breakfast is good. The Comfort Inn in Winnie is a hidden gem and I would stay there again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r144272458-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>144272458</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Best hotel in Winnie</t>
+  </si>
+  <si>
+    <t>Great hotel with amazing staff. The rooms are clean and the breakfast is really good. The hotel uses real eggs, sausage, bacon, pastries, and cereal. Next time I am in Winnie, Comfort Inn is the only hotel I will stay at.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r130358829-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1516,51 @@
   </si>
   <si>
     <t>Just spent a night in this Comfort Inn, Winnie. Cost was thirty five dollars for small pet ( free down the road, but no handicap rooms available) We discovered a major leak , and reported it to the front desk. It could have caused significant damage if left unreported.  Asked for a small reduction in our rate or lower the pet fee. Desk Attendant was very polite, but the Manager was gruff and rude. We will be making this same trip every quarter, but will not be staying with them..When I spend money, I want friendly and courteous. I did not feel out of line asking for some relief other than our senior citizen discountMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r108837316-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>108837316</t>
+  </si>
+  <si>
+    <t>05/18/2011</t>
+  </si>
+  <si>
+    <t>Misleading Amenity</t>
+  </si>
+  <si>
+    <t>My wife and I stayed in a suite for two nights. It came with a microwave. There was no mug/cup to heat water in the microwave; nor was there anything else to heat any food/drink in the microwave. The cabinets located by the microwave were bare, literally.  We found out from the desk clerk that this was not an abnormality.  Whenenver my wife and I want hot water in which to brew tea, we had to go dawnstairs. Why have a microwave when ther's nothing in the room in which to heat anything? We will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Tino31, Guest Relations Manager at Comfort Inn &amp; Suites Winnie, responded to this reviewResponded May 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2011</t>
+  </si>
+  <si>
+    <t>My wife and I stayed in a suite for two nights. It came with a microwave. There was no mug/cup to heat water in the microwave; nor was there anything else to heat any food/drink in the microwave. The cabinets located by the microwave were bare, literally.  We found out from the desk clerk that this was not an abnormality.  Whenenver my wife and I want hot water in which to brew tea, we had to go dawnstairs. Why have a microwave when ther's nothing in the room in which to heat anything? We will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d1177136-r48910566-Comfort_Inn_Suites_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>48910566</t>
+  </si>
+  <si>
+    <t>11/10/2009</t>
+  </si>
+  <si>
+    <t>Nice hotel :)</t>
+  </si>
+  <si>
+    <t>A great hotel in the little town of Winnie. Still has the new hotel smell.Front desk staff was very friendly and accomodating. Helped us find directions and even printed out a map for us.Room was very nice, good prices, and breakfast was above average compared to other hotels in the price range.Will definately stay here again if we pass through.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +2095,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1592,31 +2162,25 @@
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +2196,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1641,47 +2205,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1697,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1706,32 +2266,38 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1779,20 +2345,24 @@
         <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1840,20 +2410,22 @@
         <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1862,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1884,7 +2456,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1893,47 +2465,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -1949,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1958,22 +2526,26 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1984,13 +2556,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2006,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2015,22 +2587,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2041,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -2063,7 +2639,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2072,30 +2648,30 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
@@ -2106,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -2128,7 +2704,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2137,32 +2713,32 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
@@ -2173,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -2195,7 +2771,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2204,49 +2780,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -2262,7 +2832,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2271,34 +2841,32 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>4</v>
@@ -2307,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -2329,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2338,47 +2906,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" t="s">
-        <v>167</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2394,7 +2954,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2403,49 +2963,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
-        <v>176</v>
-      </c>
-      <c r="O16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -2461,7 +3011,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2470,38 +3020,32 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -2549,31 +3093,37 @@
         <v>193</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
@@ -2589,7 +3139,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2598,10 +3148,10 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
         <v>200</v>
@@ -2616,12 +3166,10 @@
         <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>4</v>
       </c>
@@ -2634,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
         <v>203</v>
-      </c>
-      <c r="X19" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -2656,7 +3204,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2665,34 +3213,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
         <v>207</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>208</v>
       </c>
-      <c r="K20" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" t="s">
-        <v>210</v>
-      </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2701,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -2723,7 +3271,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2732,43 +3280,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
         <v>216</v>
       </c>
-      <c r="J21" t="s">
-        <v>217</v>
-      </c>
-      <c r="K21" t="s">
-        <v>218</v>
-      </c>
-      <c r="L21" t="s">
-        <v>219</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -2784,7 +3338,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2793,22 +3347,22 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
         <v>224</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" t="s">
-        <v>227</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>228</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
@@ -2823,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
@@ -2845,7 +3399,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2854,32 +3408,32 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
         <v>233</v>
       </c>
-      <c r="J23" t="s">
-        <v>234</v>
-      </c>
-      <c r="K23" t="s">
-        <v>235</v>
-      </c>
-      <c r="L23" t="s">
-        <v>236</v>
-      </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2888,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -2910,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2919,34 +3473,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>4</v>
@@ -2955,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -2977,7 +3531,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2986,43 +3540,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>254</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="X25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
@@ -3038,7 +3596,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3047,43 +3605,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>254</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
@@ -3099,7 +3663,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3108,25 +3672,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>267</v>
       </c>
-      <c r="J27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K27" t="s">
-        <v>269</v>
-      </c>
-      <c r="L27" t="s">
-        <v>270</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>271</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3138,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
@@ -3160,7 +3724,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3169,47 +3733,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="X28" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Y28" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
@@ -3225,7 +3785,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3234,32 +3794,34 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>285</v>
       </c>
-      <c r="J29" t="s">
-        <v>286</v>
-      </c>
-      <c r="K29" t="s">
-        <v>287</v>
-      </c>
-      <c r="L29" t="s">
-        <v>288</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>289</v>
-      </c>
       <c r="O29" t="s">
-        <v>133</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3268,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="X29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Y29" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30">
@@ -3290,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3299,49 +3861,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="O30" t="s">
-        <v>81</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
       <c r="Y30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
@@ -3357,7 +3913,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3366,38 +3922,34 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
         <v>301</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>302</v>
       </c>
-      <c r="K31" t="s">
-        <v>303</v>
-      </c>
-      <c r="L31" t="s">
-        <v>304</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>305</v>
-      </c>
       <c r="O31" t="s">
-        <v>167</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3405,10 +3957,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
@@ -3451,31 +4007,25 @@
         <v>311</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>312</v>
+      </c>
+      <c r="X32" t="s">
+        <v>313</v>
+      </c>
       <c r="Y32" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
@@ -3491,7 +4041,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3500,49 +4050,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="O33" t="s">
-        <v>167</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>320</v>
+      </c>
+      <c r="X33" t="s">
+        <v>321</v>
+      </c>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
@@ -3558,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3567,45 +4111,1605 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J34" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>328</v>
+      </c>
+      <c r="X34" t="s">
+        <v>329</v>
+      </c>
       <c r="Y34" t="s">
-        <v>324</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s">
+        <v>335</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>336</v>
+      </c>
+      <c r="X35" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>344</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>345</v>
+      </c>
+      <c r="X36" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>349</v>
+      </c>
+      <c r="J37" t="s">
+        <v>350</v>
+      </c>
+      <c r="K37" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s">
+        <v>352</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>344</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>353</v>
+      </c>
+      <c r="X37" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>357</v>
+      </c>
+      <c r="J38" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" t="s">
+        <v>360</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>344</v>
+      </c>
+      <c r="O38" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>361</v>
+      </c>
+      <c r="X38" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39" t="s">
+        <v>367</v>
+      </c>
+      <c r="L39" t="s">
+        <v>368</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>369</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>370</v>
+      </c>
+      <c r="X39" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>374</v>
+      </c>
+      <c r="J40" t="s">
+        <v>375</v>
+      </c>
+      <c r="K40" t="s">
+        <v>376</v>
+      </c>
+      <c r="L40" t="s">
+        <v>377</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>378</v>
+      </c>
+      <c r="X40" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>382</v>
+      </c>
+      <c r="J41" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>369</v>
+      </c>
+      <c r="O41" t="s">
+        <v>386</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>387</v>
+      </c>
+      <c r="X41" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" t="s">
+        <v>392</v>
+      </c>
+      <c r="K42" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" t="s">
+        <v>394</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>369</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>395</v>
+      </c>
+      <c r="X42" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>398</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>399</v>
+      </c>
+      <c r="J43" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" t="s">
+        <v>401</v>
+      </c>
+      <c r="L43" t="s">
+        <v>402</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>403</v>
+      </c>
+      <c r="X43" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>407</v>
+      </c>
+      <c r="J44" t="s">
+        <v>408</v>
+      </c>
+      <c r="K44" t="s">
+        <v>409</v>
+      </c>
+      <c r="L44" t="s">
+        <v>410</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>386</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>411</v>
+      </c>
+      <c r="X44" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J45" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" t="s">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s">
+        <v>418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>419</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>420</v>
+      </c>
+      <c r="X45" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>423</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>424</v>
+      </c>
+      <c r="J46" t="s">
+        <v>425</v>
+      </c>
+      <c r="K46" t="s">
+        <v>426</v>
+      </c>
+      <c r="L46" t="s">
+        <v>427</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>428</v>
+      </c>
+      <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>429</v>
+      </c>
+      <c r="X46" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>433</v>
+      </c>
+      <c r="J47" t="s">
+        <v>434</v>
+      </c>
+      <c r="K47" t="s">
+        <v>435</v>
+      </c>
+      <c r="L47" t="s">
+        <v>436</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>437</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>438</v>
+      </c>
+      <c r="X47" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>442</v>
+      </c>
+      <c r="J48" t="s">
+        <v>443</v>
+      </c>
+      <c r="K48" t="s">
+        <v>444</v>
+      </c>
+      <c r="L48" t="s">
+        <v>445</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>446</v>
+      </c>
+      <c r="O48" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>438</v>
+      </c>
+      <c r="X48" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>449</v>
+      </c>
+      <c r="J49" t="s">
+        <v>450</v>
+      </c>
+      <c r="K49" t="s">
+        <v>451</v>
+      </c>
+      <c r="L49" t="s">
+        <v>452</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>453</v>
+      </c>
+      <c r="O49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>454</v>
+      </c>
+      <c r="X49" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>457</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>458</v>
+      </c>
+      <c r="J50" t="s">
+        <v>459</v>
+      </c>
+      <c r="K50" t="s">
+        <v>460</v>
+      </c>
+      <c r="L50" t="s">
+        <v>461</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>462</v>
+      </c>
+      <c r="O50" t="s">
+        <v>99</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>464</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>465</v>
+      </c>
+      <c r="J51" t="s">
+        <v>466</v>
+      </c>
+      <c r="K51" t="s">
+        <v>467</v>
+      </c>
+      <c r="L51" t="s">
+        <v>468</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>469</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>470</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>471</v>
+      </c>
+      <c r="J52" t="s">
+        <v>472</v>
+      </c>
+      <c r="K52" t="s">
+        <v>473</v>
+      </c>
+      <c r="L52" t="s">
+        <v>474</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>475</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>476</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>477</v>
+      </c>
+      <c r="J53" t="s">
+        <v>478</v>
+      </c>
+      <c r="K53" t="s">
+        <v>479</v>
+      </c>
+      <c r="L53" t="s">
+        <v>480</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>475</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>482</v>
+      </c>
+      <c r="J54" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" t="s">
+        <v>484</v>
+      </c>
+      <c r="L54" t="s">
+        <v>485</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>486</v>
+      </c>
+      <c r="O54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>488</v>
+      </c>
+      <c r="J55" t="s">
+        <v>489</v>
+      </c>
+      <c r="K55" t="s">
+        <v>490</v>
+      </c>
+      <c r="L55" t="s">
+        <v>491</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>492</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>493</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>494</v>
+      </c>
+      <c r="J56" t="s">
+        <v>495</v>
+      </c>
+      <c r="K56" t="s">
+        <v>496</v>
+      </c>
+      <c r="L56" t="s">
+        <v>497</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>498</v>
+      </c>
+      <c r="O56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>501</v>
+      </c>
+      <c r="J57" t="s">
+        <v>502</v>
+      </c>
+      <c r="K57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L57" t="s">
+        <v>504</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>505</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>506</v>
+      </c>
+      <c r="X57" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57735</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>509</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>510</v>
+      </c>
+      <c r="J58" t="s">
+        <v>511</v>
+      </c>
+      <c r="K58" t="s">
+        <v>512</v>
+      </c>
+      <c r="L58" t="s">
+        <v>513</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>514</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
